--- a/public/file/ThemLop.xlsx
+++ b/public/file/ThemLop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyho\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Project\quanlytn\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A955EAE4-53B7-4946-839E-830245EDA183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C3AF4-3DE9-436B-A40C-8A0E356E6C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{662ADF47-B90F-46EF-B240-D9822A6F685F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Xưng tội 1A</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Nghỉ luôn</t>
+  </si>
+  <si>
+    <t>----</t>
   </si>
 </sst>
 </file>
@@ -239,9 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0021EDF4-5A57-41BD-9B2C-DF9D6145322D}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +841,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="55" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
